--- a/biology/Zoologie/Colibri_d'Estelle/Colibri_d'Estelle.xlsx
+++ b/biology/Zoologie/Colibri_d'Estelle/Colibri_d'Estelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_d%27Estelle</t>
+          <t>Colibri_d'Estelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oreotrochilus estella
 Le Colibri d'Estelle (Oreotrochilus estella), aussi connu en tant que Colibri estelle, est une espèce de colibris (la famille des Trochilidae) présents en Argentine, en Bolivie, au Chili et en Équateur. Il est connu dans ces pays sous le nom de Picaflor cordillerano.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_d%27Estelle</t>
+          <t>Colibri_d'Estelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle habite les prairies tropicales et subtropicales de haute altitude.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_d%27Estelle</t>
+          <t>Colibri_d'Estelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Oreotrochilus estella estella  (Orbigny &amp; Lafresnaye, 1838)
